--- a/MPN.xlsx
+++ b/MPN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2019-2020-I\Antonio Cardenas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Integrador-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="129">
   <si>
     <t>cve_carrera</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>ORIGEN DE LOS MATERIALES</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN PUTAZOS</t>
   </si>
 </sst>
 </file>
@@ -743,23 +746,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" width="9.140625" style="2" customWidth="1"/>
-    <col min="257" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="256" width="9.109375" style="2" customWidth="1"/>
+    <col min="257" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -779,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -979,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1199,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1259,7 +1264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1299,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1379,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -1459,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -1679,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -1719,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -1739,7 +1744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
@@ -1759,7 +1764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>80</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>80</v>
       </c>
@@ -1819,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
@@ -1839,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>80</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
@@ -1899,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -1919,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>88</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>88</v>
       </c>
@@ -1999,7 +2004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
@@ -2019,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
@@ -2039,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -2059,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>88</v>
       </c>
@@ -2139,7 +2144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>96</v>
       </c>
@@ -2159,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>96</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>96</v>
       </c>
@@ -2259,7 +2264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>96</v>
       </c>
@@ -2279,7 +2284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>98</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>98</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
@@ -2339,7 +2344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
@@ -2359,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
@@ -2399,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
@@ -2419,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>98</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
@@ -2459,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
@@ -2479,7 +2484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>107</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>107</v>
       </c>
@@ -2519,7 +2524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
@@ -2539,7 +2544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -2559,7 +2564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
@@ -2579,7 +2584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>107</v>
       </c>
@@ -2599,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>113</v>
       </c>
@@ -2639,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>113</v>
       </c>
@@ -2659,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
@@ -2679,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
@@ -2719,7 +2724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>113</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>113</v>
       </c>
@@ -2759,7 +2764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
@@ -2779,7 +2784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>113</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
@@ -2839,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -2859,7 +2864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -2879,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -2939,7 +2944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
@@ -2959,7 +2964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -3019,7 +3024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>121</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
@@ -3079,7 +3084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -3117,6 +3122,11 @@
       </c>
       <c r="F118" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/MPN.xlsx
+++ b/MPN.xlsx
@@ -749,7 +749,7 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3125,6 +3125,9 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>34</v>
+      </c>
       <c r="B119" s="2" t="s">
         <v>128</v>
       </c>

--- a/MPN.xlsx
+++ b/MPN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="128">
   <si>
     <t>cve_carrera</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>ORIGEN DE LOS MATERIALES</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN PUTAZOS</t>
   </si>
 </sst>
 </file>
@@ -746,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3124,14 +3121,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>34</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">

--- a/MPN.xlsx
+++ b/MPN.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Resultados">Resultados!$A$1:$F$118</definedName>
+    <definedName name="Resultados">Resultados!$A$1:$F$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="130">
   <si>
     <t>cve_carrera</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>FIN ARCHIVO</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -746,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -955,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -966,22 +969,22 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -992,16 +995,16 @@
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1012,16 +1015,16 @@
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1032,16 +1035,16 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,16 +1055,16 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,16 +1095,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1112,36 +1115,36 @@
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,16 +1155,16 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,16 +1175,16 @@
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,16 +1195,16 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1212,16 +1215,16 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,16 +1235,16 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1252,16 +1255,16 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1272,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1292,16 +1295,16 @@
         <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1312,36 +1315,36 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1352,16 +1355,16 @@
         <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,16 +1375,16 @@
         <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1412,16 +1415,16 @@
         <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1432,16 +1435,16 @@
         <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,36 +1455,36 @@
         <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1492,16 +1495,16 @@
         <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1512,16 +1515,16 @@
         <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1532,16 +1535,16 @@
         <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1552,16 +1555,16 @@
         <v>67</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1572,16 +1575,16 @@
         <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1592,16 +1595,16 @@
         <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,16 +1615,16 @@
         <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1632,36 +1635,36 @@
         <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,16 +1675,16 @@
         <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1692,16 +1695,16 @@
         <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1712,16 +1715,16 @@
         <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,16 +1735,16 @@
         <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1752,16 +1755,16 @@
         <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,36 +1775,36 @@
         <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,16 +1815,16 @@
         <v>81</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,16 +1835,16 @@
         <v>81</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1852,16 +1855,16 @@
         <v>81</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1872,16 +1875,16 @@
         <v>81</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,16 +1895,16 @@
         <v>81</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,16 +1915,16 @@
         <v>81</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1932,16 +1935,16 @@
         <v>81</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1952,36 +1955,36 @@
         <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
         <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1992,16 +1995,16 @@
         <v>89</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,16 +2015,16 @@
         <v>89</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,16 +2035,16 @@
         <v>89</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,16 +2055,16 @@
         <v>89</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2072,16 +2075,16 @@
         <v>89</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2092,16 +2095,16 @@
         <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,16 +2115,16 @@
         <v>89</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,36 +2135,36 @@
         <v>89</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,16 +2175,16 @@
         <v>97</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,16 +2195,16 @@
         <v>97</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,16 +2215,16 @@
         <v>97</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2232,16 +2235,16 @@
         <v>97</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2252,16 +2255,16 @@
         <v>97</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,36 +2275,36 @@
         <v>97</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,16 +2315,16 @@
         <v>99</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2332,16 +2335,16 @@
         <v>99</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2352,16 +2355,16 @@
         <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,16 +2375,16 @@
         <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2392,16 +2395,16 @@
         <v>99</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
       <c r="F82" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2412,16 +2415,16 @@
         <v>99</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2432,36 +2435,36 @@
         <v>99</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,16 +2475,16 @@
         <v>108</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2492,16 +2495,16 @@
         <v>108</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
       <c r="F87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,16 +2515,16 @@
         <v>108</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,16 +2535,16 @@
         <v>108</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2552,16 +2555,16 @@
         <v>108</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2572,16 +2575,16 @@
         <v>108</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2592,16 +2595,16 @@
         <v>108</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2612,36 +2615,36 @@
         <v>108</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2652,16 +2655,16 @@
         <v>114</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,16 +2675,16 @@
         <v>114</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,16 +2695,16 @@
         <v>114</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
       <c r="F97" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2712,16 +2715,16 @@
         <v>114</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
       <c r="F98" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2732,16 +2735,16 @@
         <v>114</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2752,16 +2755,16 @@
         <v>114</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="F100" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,16 +2775,16 @@
         <v>114</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2792,36 +2795,36 @@
         <v>114</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
       </c>
       <c r="F102" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
       </c>
       <c r="F103" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2832,16 +2835,16 @@
         <v>118</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
       </c>
       <c r="F104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2852,16 +2855,16 @@
         <v>118</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
       </c>
       <c r="F105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,16 +2875,16 @@
         <v>118</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
       </c>
       <c r="F106" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2892,16 +2895,16 @@
         <v>118</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2912,16 +2915,16 @@
         <v>118</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2932,16 +2935,16 @@
         <v>118</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
       </c>
       <c r="F109" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2952,36 +2955,36 @@
         <v>118</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
       </c>
       <c r="F110" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
       </c>
       <c r="F111" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2992,16 +2995,16 @@
         <v>122</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
       </c>
       <c r="F112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3012,16 +3015,16 @@
         <v>122</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,16 +3035,16 @@
         <v>122</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3052,16 +3055,16 @@
         <v>122</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3072,16 +3075,16 @@
         <v>122</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
       </c>
       <c r="F116" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3092,16 +3095,16 @@
         <v>122</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
       <c r="F117" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3112,20 +3115,40 @@
         <v>122</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="1">
-        <v>1</v>
-      </c>
-      <c r="F118" s="1">
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="2" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
         <v>128</v>
       </c>
     </row>

--- a/MPN.xlsx
+++ b/MPN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22918"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD9FFA76-E6FB-4318-B6B5-81651BD77A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,17 @@
   <definedNames>
     <definedName name="Resultados">Resultados!$A$1:$F$119</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,6 +110,9 @@
     <t>7254</t>
   </si>
   <si>
+    <t>asd</t>
+  </si>
+  <si>
     <t>HERRAMIENTAS DE COMPUTO</t>
   </si>
   <si>
@@ -409,16 +423,13 @@
   </si>
   <si>
     <t>FIN ARCHIVO</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -748,26 +759,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" width="9.109375" style="2" customWidth="1"/>
-    <col min="257" max="16384" width="11.44140625" style="2"/>
+    <col min="5" max="5" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="256" width="9.140625" style="2" customWidth="1"/>
+    <col min="257" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,7 +969,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -967,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,7 +989,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -987,38 +998,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1027,18 +1038,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1047,18 +1058,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1067,18 +1078,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1087,18 +1098,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1107,12 +1118,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1127,18 +1138,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1147,38 +1158,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1187,18 +1198,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1207,12 +1218,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -1227,12 +1238,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
@@ -1247,18 +1258,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1267,18 +1278,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1287,18 +1298,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1307,18 +1318,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1327,18 +1338,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1347,38 +1358,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="12.75">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1387,18 +1398,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1407,18 +1418,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1427,18 +1438,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1447,18 +1458,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1467,18 +1478,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1487,38 +1498,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1527,18 +1538,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1547,18 +1558,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1567,18 +1578,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1587,12 +1598,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -1607,12 +1618,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -1627,18 +1638,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1647,18 +1658,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1667,12 +1678,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1687,12 +1698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
@@ -1707,18 +1718,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -1727,18 +1738,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1747,18 +1758,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -1767,18 +1778,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1787,18 +1798,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -1807,12 +1818,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
@@ -1827,18 +1838,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -1847,18 +1858,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -1867,18 +1878,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -1887,18 +1898,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -1907,18 +1918,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -1927,18 +1938,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -1947,18 +1958,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -1967,12 +1978,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -1987,38 +1998,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2027,18 +2038,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2047,12 +2058,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -2067,12 +2078,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>16</v>
@@ -2087,18 +2098,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2107,18 +2118,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2127,18 +2138,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2147,18 +2158,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -2167,38 +2178,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -2207,18 +2218,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -2227,18 +2238,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -2247,18 +2258,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -2267,18 +2278,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -2287,18 +2298,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -2307,38 +2318,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -2347,18 +2358,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -2367,12 +2378,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -2387,18 +2398,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -2407,18 +2418,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -2427,18 +2438,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -2447,18 +2458,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -2467,38 +2478,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="B87" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -2507,18 +2518,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -2527,18 +2538,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -2547,12 +2558,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
@@ -2567,12 +2578,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>16</v>
@@ -2587,18 +2598,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -2607,18 +2618,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -2627,18 +2638,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -2647,38 +2658,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B96" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -2687,12 +2698,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
@@ -2707,18 +2718,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -2727,12 +2738,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>14</v>
@@ -2747,18 +2758,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -2767,18 +2778,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -2787,18 +2798,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -2807,18 +2818,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -2827,18 +2838,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -2847,18 +2858,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -2867,12 +2878,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
@@ -2887,12 +2898,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
@@ -2907,18 +2918,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -2927,12 +2938,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
@@ -2947,18 +2958,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -2967,18 +2978,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -2987,12 +2998,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>14</v>
@@ -3007,18 +3018,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -3027,15 +3038,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -3047,18 +3058,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -3067,18 +3078,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -3087,18 +3098,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -3107,18 +3118,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -3127,12 +3138,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
@@ -3147,9 +3158,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
